--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1708187.374600699</v>
+        <v>1705649.950057034</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.359816860132467</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2.696604229166967</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,52 +1224,52 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1297,55 +1297,55 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G10" t="n">
+      <c r="R10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>338.3917250821578</v>
       </c>
       <c r="C11" t="n">
-        <v>250.1143027078307</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.3409250393603</v>
+        <v>310.3409250393602</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>337.588253490939</v>
       </c>
       <c r="F11" t="n">
-        <v>362.5339291603888</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>366.5796090721308</v>
+        <v>303.2478623672536</v>
       </c>
       <c r="H11" t="n">
-        <v>250.2656478059978</v>
+        <v>250.2656478059977</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.84564520685322</v>
+        <v>64.84564520685306</v>
       </c>
       <c r="T11" t="n">
-        <v>159.5758535582975</v>
+        <v>159.5758535582974</v>
       </c>
       <c r="U11" t="n">
-        <v>206.6530553775794</v>
+        <v>206.6530553775792</v>
       </c>
       <c r="V11" t="n">
-        <v>283.4101418888123</v>
+        <v>283.4101418888121</v>
       </c>
       <c r="W11" t="n">
-        <v>304.8988521360904</v>
+        <v>304.8988521360902</v>
       </c>
       <c r="X11" t="n">
-        <v>325.3889840971464</v>
+        <v>325.3889840971462</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.895822074731</v>
+        <v>341.8958220747308</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.4898636006147</v>
+        <v>135.4898636006145</v>
       </c>
       <c r="C13" t="n">
-        <v>122.9047045173052</v>
+        <v>122.904704517305</v>
       </c>
       <c r="D13" t="n">
-        <v>104.2733564368898</v>
+        <v>104.2733564368896</v>
       </c>
       <c r="E13" t="n">
-        <v>102.0918460652466</v>
+        <v>102.0918460652464</v>
       </c>
       <c r="F13" t="n">
-        <v>101.0789314416086</v>
+        <v>101.0789314416085</v>
       </c>
       <c r="G13" t="n">
-        <v>121.6836916777056</v>
+        <v>121.6836916777054</v>
       </c>
       <c r="H13" t="n">
-        <v>100.4128983329982</v>
+        <v>37.63959422845628</v>
       </c>
       <c r="I13" t="n">
-        <v>52.0103038285155</v>
+        <v>52.01030382851533</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.59003608872472</v>
+        <v>44.59003608872456</v>
       </c>
       <c r="S13" t="n">
-        <v>145.4269087501193</v>
+        <v>145.4269087501191</v>
       </c>
       <c r="T13" t="n">
-        <v>175.2068326948466</v>
+        <v>175.2068326948464</v>
       </c>
       <c r="U13" t="n">
-        <v>241.8697216242903</v>
+        <v>241.8697216242901</v>
       </c>
       <c r="V13" t="n">
-        <v>207.7955267425054</v>
+        <v>207.7955267425052</v>
       </c>
       <c r="W13" t="n">
-        <v>179.4075776507227</v>
+        <v>242.1808817552682</v>
       </c>
       <c r="X13" t="n">
-        <v>181.3675388077145</v>
+        <v>181.3675388077144</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.2425367707722</v>
+        <v>174.242536770772</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.391725082158</v>
+        <v>338.3917250821578</v>
       </c>
       <c r="C14" t="n">
-        <v>320.9307751896849</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.3409250393603</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>337.5882534909392</v>
+        <v>337.588253490939</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>362.5339291603887</v>
       </c>
       <c r="G14" t="n">
-        <v>366.5796090721308</v>
+        <v>366.5796090721307</v>
       </c>
       <c r="H14" t="n">
-        <v>250.2656478059978</v>
+        <v>250.2656478059977</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64.84564520685306</v>
       </c>
       <c r="T14" t="n">
-        <v>159.5758535582975</v>
+        <v>159.5758535582974</v>
       </c>
       <c r="U14" t="n">
-        <v>192.135030825959</v>
+        <v>206.6530553775792</v>
       </c>
       <c r="V14" t="n">
-        <v>283.4101418888123</v>
+        <v>283.4101418888121</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>189.3741013101836</v>
       </c>
       <c r="X14" t="n">
-        <v>325.3889840971464</v>
+        <v>325.3889840971462</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.895822074731</v>
+        <v>341.8958220747308</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.71655949607039</v>
+        <v>135.4898636006145</v>
       </c>
       <c r="C16" t="n">
-        <v>122.9047045173052</v>
+        <v>122.904704517305</v>
       </c>
       <c r="D16" t="n">
-        <v>104.2733564368898</v>
+        <v>104.2733564368896</v>
       </c>
       <c r="E16" t="n">
-        <v>102.0918460652466</v>
+        <v>102.0918460652464</v>
       </c>
       <c r="F16" t="n">
-        <v>101.0789314416086</v>
+        <v>38.30562733706777</v>
       </c>
       <c r="G16" t="n">
-        <v>121.6836916777056</v>
+        <v>121.6836916777054</v>
       </c>
       <c r="H16" t="n">
-        <v>100.4128983329982</v>
+        <v>100.412898332998</v>
       </c>
       <c r="I16" t="n">
-        <v>52.01030382851549</v>
+        <v>52.01030382851533</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.59003608872472</v>
+        <v>44.59003608872456</v>
       </c>
       <c r="S16" t="n">
-        <v>145.4269087501193</v>
+        <v>145.4269087501191</v>
       </c>
       <c r="T16" t="n">
-        <v>175.2068326948466</v>
+        <v>175.2068326948464</v>
       </c>
       <c r="U16" t="n">
-        <v>241.8697216242903</v>
+        <v>241.8697216242901</v>
       </c>
       <c r="V16" t="n">
-        <v>207.7955267425054</v>
+        <v>207.7955267425052</v>
       </c>
       <c r="W16" t="n">
-        <v>242.1808817552684</v>
+        <v>242.1808817552682</v>
       </c>
       <c r="X16" t="n">
-        <v>181.3675388077145</v>
+        <v>181.3675388077144</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.2425367707722</v>
+        <v>174.242536770772</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>13.91332762480519</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1901,13 +1901,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>196.848611472874</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -2002,25 +2002,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2081,22 +2081,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>271.5655764420894</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231188</v>
+        <v>321.6212326268954</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2141,10 +2141,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2239,25 +2239,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2318,19 +2318,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2378,10 +2378,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.11866504918562</v>
+        <v>64.11866504918568</v>
       </c>
       <c r="T26" t="n">
         <v>158.84887340063</v>
@@ -2713,25 +2713,25 @@
         <v>134.7628834429471</v>
       </c>
       <c r="C28" t="n">
-        <v>122.1777243596376</v>
+        <v>122.1777243596377</v>
       </c>
       <c r="D28" t="n">
-        <v>103.5463762792221</v>
+        <v>103.5463762792222</v>
       </c>
       <c r="E28" t="n">
         <v>101.364865907579</v>
       </c>
       <c r="F28" t="n">
-        <v>54.91043572231726</v>
+        <v>100.3519512839411</v>
       </c>
       <c r="G28" t="n">
         <v>120.956711520038</v>
       </c>
       <c r="H28" t="n">
-        <v>99.68591817533057</v>
+        <v>99.6859181753306</v>
       </c>
       <c r="I28" t="n">
-        <v>51.2833236708479</v>
+        <v>5.841808109223204</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.86305593105715</v>
+        <v>43.86305593105716</v>
       </c>
       <c r="S28" t="n">
         <v>144.6999285924517</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.11866504918562</v>
+        <v>64.11866504918568</v>
       </c>
       <c r="T29" t="n">
         <v>158.84887340063</v>
@@ -2950,25 +2950,25 @@
         <v>134.7628834429471</v>
       </c>
       <c r="C31" t="n">
-        <v>122.1777243596376</v>
+        <v>122.1777243596377</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5463762792221</v>
+        <v>103.5463762792222</v>
       </c>
       <c r="E31" t="n">
         <v>101.364865907579</v>
       </c>
       <c r="F31" t="n">
-        <v>100.351951283941</v>
+        <v>100.3519512839411</v>
       </c>
       <c r="G31" t="n">
-        <v>120.956711520038</v>
+        <v>120.9567115200381</v>
       </c>
       <c r="H31" t="n">
-        <v>99.68591817533057</v>
+        <v>54.24440261370591</v>
       </c>
       <c r="I31" t="n">
-        <v>51.2833236708479</v>
+        <v>51.28332367084794</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.86305593105715</v>
+        <v>43.86305593105717</v>
       </c>
       <c r="S31" t="n">
         <v>144.6999285924517</v>
       </c>
       <c r="T31" t="n">
-        <v>129.038336975555</v>
+        <v>174.479852537179</v>
       </c>
       <c r="U31" t="n">
         <v>241.1427414666227</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448878</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524148</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020902</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231187</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348607</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687277</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958315</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210274</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598763</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797646</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433853</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572807</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912454</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145462</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.946589034861</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695834</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797673</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043388</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572834</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124567</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514549</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404336</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.83483956191807</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>17.83483956191807</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>17.83483956191807</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>17.83483956191807</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>10.88933881271459</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>3.943838063511124</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>3.943838063511124</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>3.943838063511124</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.153628812378831</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>12.96091409667315</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>12.96091409667315</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>19.76819938096748</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>19.76819938096748</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>26.5754846652618</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>24.78034031112154</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>17.83483956191807</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.83483956191807</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>4.875630910537126</v>
+        <v>4.87563091053728</v>
       </c>
       <c r="K9" t="n">
-        <v>11.68291619483145</v>
+        <v>4.87563091053728</v>
       </c>
       <c r="L9" t="n">
-        <v>18.49020147912577</v>
+        <v>11.6829161948316</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>18.49020147912593</v>
       </c>
       <c r="N9" t="n">
-        <v>27.50418296684575</v>
+        <v>25.29748676342025</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>25.29748676342025</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,10 +4969,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.900413185425</v>
+        <v>1280.090589870113</v>
       </c>
       <c r="C11" t="n">
-        <v>1369.259703379535</v>
+        <v>1280.090589870113</v>
       </c>
       <c r="D11" t="n">
-        <v>1055.784021521595</v>
+        <v>966.6149080121738</v>
       </c>
       <c r="E11" t="n">
-        <v>1055.784021521595</v>
+        <v>625.6166721627405</v>
       </c>
       <c r="F11" t="n">
-        <v>689.588133480798</v>
+        <v>625.6166721627405</v>
       </c>
       <c r="G11" t="n">
-        <v>319.3057000746052</v>
+        <v>319.3057000746053</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3260.105169885078</v>
+        <v>3260.105169885077</v>
       </c>
       <c r="T11" t="n">
-        <v>3098.917439018111</v>
+        <v>3098.91743901811</v>
       </c>
       <c r="U11" t="n">
-        <v>2890.176979040758</v>
+        <v>2890.176979040757</v>
       </c>
       <c r="V11" t="n">
-        <v>2603.904108445998</v>
+        <v>2603.904108445997</v>
       </c>
       <c r="W11" t="n">
-        <v>2295.925469924695</v>
+        <v>2295.925469924694</v>
       </c>
       <c r="X11" t="n">
-        <v>1967.249728412426</v>
+        <v>1967.249728412425</v>
       </c>
       <c r="Y11" t="n">
-        <v>1621.900413185425</v>
+        <v>1621.900413185424</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>778.0835632001325</v>
+        <v>714.6761853167561</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9373970210363</v>
+        <v>590.5300191376601</v>
       </c>
       <c r="D13" t="n">
-        <v>548.6107743575113</v>
+        <v>485.2033964741353</v>
       </c>
       <c r="E13" t="n">
-        <v>445.4876975239289</v>
+        <v>382.0803196405531</v>
       </c>
       <c r="F13" t="n">
-        <v>343.3877667748292</v>
+        <v>279.9803888914536</v>
       </c>
       <c r="G13" t="n">
-        <v>220.4749468983589</v>
+        <v>157.067569014983</v>
       </c>
       <c r="H13" t="n">
-        <v>119.0477768650274</v>
+        <v>119.0477768650272</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>155.5334442946284</v>
+        <v>155.5334442946285</v>
       </c>
       <c r="K13" t="n">
-        <v>403.4193226590141</v>
+        <v>403.4193226590144</v>
       </c>
       <c r="L13" t="n">
-        <v>763.8778165230196</v>
+        <v>763.8778165230201</v>
       </c>
       <c r="M13" t="n">
-        <v>1151.933557538078</v>
+        <v>1151.933557538079</v>
       </c>
       <c r="N13" t="n">
-        <v>1537.240629659452</v>
+        <v>1537.240629659453</v>
       </c>
       <c r="O13" t="n">
         <v>1880.468923995375</v>
       </c>
       <c r="P13" t="n">
-        <v>2156.975119844543</v>
+        <v>2156.975119844544</v>
       </c>
       <c r="Q13" t="n">
-        <v>2278.484111412567</v>
+        <v>2278.484111412568</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.443670918906</v>
+        <v>2233.443670918907</v>
       </c>
       <c r="S13" t="n">
-        <v>2086.547803494543</v>
+        <v>2086.547803494544</v>
       </c>
       <c r="T13" t="n">
-        <v>1909.57120481288</v>
+        <v>1909.571204812881</v>
       </c>
       <c r="U13" t="n">
-        <v>1665.258354687334</v>
+        <v>1665.258354687336</v>
       </c>
       <c r="V13" t="n">
-        <v>1455.363883230258</v>
+        <v>1455.36388323026</v>
       </c>
       <c r="W13" t="n">
-        <v>1274.144107825487</v>
+        <v>1210.736729942111</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.944573676281</v>
+        <v>1027.537195792904</v>
       </c>
       <c r="Y13" t="n">
-        <v>914.9420112815615</v>
+        <v>851.534633398185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1668.234551379772</v>
+        <v>1396.782257371028</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.062051188172</v>
+        <v>1396.782257371028</v>
       </c>
       <c r="D14" t="n">
-        <v>1030.586369330232</v>
+        <v>1396.782257371028</v>
       </c>
       <c r="E14" t="n">
-        <v>689.5881334807982</v>
+        <v>1055.784021521595</v>
       </c>
       <c r="F14" t="n">
-        <v>689.5881334807982</v>
+        <v>689.588133480798</v>
       </c>
       <c r="G14" t="n">
-        <v>319.3057000746055</v>
+        <v>319.3057000746053</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3260.105169885076</v>
       </c>
       <c r="T14" t="n">
-        <v>3164.418090742203</v>
+        <v>3098.917439018109</v>
       </c>
       <c r="U14" t="n">
-        <v>2970.342302029113</v>
+        <v>2890.176979040756</v>
       </c>
       <c r="V14" t="n">
-        <v>2684.069431434354</v>
+        <v>2603.904108445996</v>
       </c>
       <c r="W14" t="n">
-        <v>2684.069431434354</v>
+        <v>2412.617137425609</v>
       </c>
       <c r="X14" t="n">
-        <v>2355.393689922084</v>
+        <v>2083.94139591334</v>
       </c>
       <c r="Y14" t="n">
-        <v>2010.044374695083</v>
+        <v>1738.592080686339</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5370,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.0835632001318</v>
+        <v>714.6761853167566</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9373970210356</v>
+        <v>590.5300191376606</v>
       </c>
       <c r="D16" t="n">
-        <v>548.6107743575105</v>
+        <v>485.2033964741358</v>
       </c>
       <c r="E16" t="n">
-        <v>445.4876975239281</v>
+        <v>382.0803196405536</v>
       </c>
       <c r="F16" t="n">
         <v>343.3877667748285</v>
       </c>
       <c r="G16" t="n">
-        <v>220.4749468983588</v>
+        <v>220.4749468983585</v>
       </c>
       <c r="H16" t="n">
-        <v>119.0477768650273</v>
+        <v>119.0477768650272</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>155.5334442946284</v>
+        <v>155.5334442946285</v>
       </c>
       <c r="K16" t="n">
-        <v>403.4193226590141</v>
+        <v>403.4193226590144</v>
       </c>
       <c r="L16" t="n">
-        <v>763.8778165230196</v>
+        <v>763.8778165230201</v>
       </c>
       <c r="M16" t="n">
-        <v>1151.933557538078</v>
+        <v>1151.933557538079</v>
       </c>
       <c r="N16" t="n">
-        <v>1537.240629659452</v>
+        <v>1537.240629659453</v>
       </c>
       <c r="O16" t="n">
-        <v>1880.468923995375</v>
+        <v>1880.468923995376</v>
       </c>
       <c r="P16" t="n">
-        <v>2156.975119844544</v>
+        <v>2156.975119844545</v>
       </c>
       <c r="Q16" t="n">
-        <v>2278.484111412568</v>
+        <v>2278.484111412569</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.443670918907</v>
+        <v>2233.443670918908</v>
       </c>
       <c r="S16" t="n">
-        <v>2086.547803494544</v>
+        <v>2086.547803494545</v>
       </c>
       <c r="T16" t="n">
-        <v>1909.571204812881</v>
+        <v>1909.571204812882</v>
       </c>
       <c r="U16" t="n">
-        <v>1665.258354687335</v>
+        <v>1665.258354687337</v>
       </c>
       <c r="V16" t="n">
-        <v>1455.363883230259</v>
+        <v>1455.363883230261</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.736729942109</v>
+        <v>1210.736729942111</v>
       </c>
       <c r="X16" t="n">
-        <v>1027.537195792902</v>
+        <v>1027.537195792905</v>
       </c>
       <c r="Y16" t="n">
-        <v>851.5346333981827</v>
+        <v>851.5346333981854</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1386.143792573978</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C17" t="n">
-        <v>1386.143792573978</v>
+        <v>979.8546354718737</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573978</v>
+        <v>669.0385698131965</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>330.6999501630257</v>
       </c>
       <c r="F17" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G17" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3262.764786084339</v>
@@ -5549,16 +5549,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2699.318846352812</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W17" t="n">
-        <v>2393.999824030771</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X17" t="n">
-        <v>2067.983698717765</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>1725.293999690027</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H19" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1364.208554989045</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C20" t="n">
-        <v>1042.695670996706</v>
+        <v>979.8546354718729</v>
       </c>
       <c r="D20" t="n">
-        <v>768.3870079238886</v>
+        <v>979.8546354718729</v>
       </c>
       <c r="E20" t="n">
-        <v>430.0483882737176</v>
+        <v>641.516015821702</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U20" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W20" t="n">
-        <v>2372.064586445838</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X20" t="n">
-        <v>2046.048461132832</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y20" t="n">
-        <v>1703.358762105093</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,7 +5835,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
         <v>335.4089181770414</v>
@@ -5905,55 +5905,55 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328078</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337106</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
         <v>1062.439973388314</v>
@@ -5978,13 +5978,13 @@
         <v>698.9037015467793</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
@@ -5993,25 +5993,25 @@
         <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1635.769886219269</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>2240.457506552424</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2787.236323611206</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O23" t="n">
-        <v>3290.208794490543</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P23" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309627</v>
@@ -6032,7 +6032,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572251</v>
@@ -6181,7 +6181,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297367</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6200,58 +6200,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2045.209383194912</v>
+        <v>2045.209383194913</v>
       </c>
       <c r="C26" t="n">
-        <v>1721.771206394894</v>
+        <v>1721.771206394895</v>
       </c>
       <c r="D26" t="n">
-        <v>1409.029847928538</v>
+        <v>1409.029847928539</v>
       </c>
       <c r="E26" t="n">
-        <v>1068.765935470688</v>
+        <v>1068.765935470689</v>
       </c>
       <c r="F26" t="n">
-        <v>703.3043708214741</v>
+        <v>703.3043708214752</v>
       </c>
       <c r="G26" t="n">
         <v>333.7562608068648</v>
       </c>
       <c r="H26" t="n">
-        <v>81.69700055602608</v>
+        <v>81.6970005560261</v>
       </c>
       <c r="I26" t="n">
-        <v>81.69700055602608</v>
+        <v>81.6970005560261</v>
       </c>
       <c r="J26" t="n">
         <v>437.9817805354045</v>
       </c>
       <c r="K26" t="n">
-        <v>771.8011542252509</v>
+        <v>1092.705112670704</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.83536747366</v>
+        <v>1543.739325919112</v>
       </c>
       <c r="M26" t="n">
-        <v>1756.367272145584</v>
+        <v>2077.271230591037</v>
       </c>
       <c r="N26" t="n">
-        <v>2303.146089204366</v>
+        <v>2624.050047649819</v>
       </c>
       <c r="O26" t="n">
-        <v>2806.118560083703</v>
+        <v>3317.71297745739</v>
       </c>
       <c r="P26" t="n">
-        <v>3502.295503061261</v>
+        <v>3712.487343814567</v>
       </c>
       <c r="Q26" t="n">
-        <v>3960.773705570249</v>
+        <v>3960.77370557025</v>
       </c>
       <c r="R26" t="n">
-        <v>4084.850027801304</v>
+        <v>4084.850027801305</v>
       </c>
       <c r="S26" t="n">
-        <v>4020.083699468793</v>
+        <v>4020.083699468794</v>
       </c>
       <c r="T26" t="n">
         <v>3859.63029199341</v>
@@ -6263,13 +6263,13 @@
         <v>3366.085608204463</v>
       </c>
       <c r="W26" t="n">
-        <v>3058.841293074743</v>
+        <v>3058.841293074744</v>
       </c>
       <c r="X26" t="n">
-        <v>2730.899874954057</v>
+        <v>2730.899874954058</v>
       </c>
       <c r="Y26" t="n">
-        <v>2386.284883118639</v>
+        <v>2386.28488311864</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.7287386049512</v>
+        <v>956.7287386049514</v>
       </c>
       <c r="C27" t="n">
-        <v>782.2757093238242</v>
+        <v>782.2757093238245</v>
       </c>
       <c r="D27" t="n">
-        <v>633.341299662573</v>
+        <v>633.3412996625732</v>
       </c>
       <c r="E27" t="n">
-        <v>474.1038446571175</v>
+        <v>474.1038446571176</v>
       </c>
       <c r="F27" t="n">
-        <v>327.5692866840025</v>
+        <v>327.5692866840026</v>
       </c>
       <c r="G27" t="n">
-        <v>191.2061865166206</v>
+        <v>191.2061865166207</v>
       </c>
       <c r="H27" t="n">
-        <v>100.7042921544881</v>
+        <v>100.7042921544882</v>
       </c>
       <c r="I27" t="n">
-        <v>81.69700055602608</v>
+        <v>81.6970005560261</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3742700466433</v>
+        <v>175.3742700466434</v>
       </c>
       <c r="K27" t="n">
-        <v>413.6384690269904</v>
+        <v>413.6384690269905</v>
       </c>
       <c r="L27" t="n">
         <v>780.3366293396557</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.612954561971</v>
+        <v>1227.612954561973</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.135998116426</v>
+        <v>1701.135998116427</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.097277534481</v>
+        <v>2112.097277534482</v>
       </c>
       <c r="P27" t="n">
         <v>2422.596869010584</v>
       </c>
       <c r="Q27" t="n">
-        <v>2580.238426657183</v>
+        <v>2580.238426657184</v>
       </c>
       <c r="R27" t="n">
         <v>2580.094073249699</v>
@@ -6333,13 +6333,13 @@
         <v>2450.656186743179</v>
       </c>
       <c r="T27" t="n">
-        <v>2258.013186421034</v>
+        <v>2258.013186421035</v>
       </c>
       <c r="U27" t="n">
         <v>2029.94533955545</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.793231323707</v>
+        <v>1794.793231323708</v>
       </c>
       <c r="W27" t="n">
         <v>1540.555874595506</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>742.2276628135741</v>
+        <v>742.227662813573</v>
       </c>
       <c r="C28" t="n">
-        <v>618.8158200260613</v>
+        <v>618.8158200260602</v>
       </c>
       <c r="D28" t="n">
-        <v>514.2235207541197</v>
+        <v>514.2235207541187</v>
       </c>
       <c r="E28" t="n">
-        <v>411.8347673121208</v>
+        <v>411.8347673121197</v>
       </c>
       <c r="F28" t="n">
-        <v>356.3696807239215</v>
+        <v>310.4691599546034</v>
       </c>
       <c r="G28" t="n">
-        <v>234.1911842390347</v>
+        <v>188.2906634697165</v>
       </c>
       <c r="H28" t="n">
-        <v>133.4983375972866</v>
+        <v>87.59781682796873</v>
       </c>
       <c r="I28" t="n">
-        <v>81.69700055602608</v>
+        <v>81.6970005560261</v>
       </c>
       <c r="J28" t="n">
-        <v>171.4380387745619</v>
+        <v>171.4380387745618</v>
       </c>
       <c r="K28" t="n">
-        <v>420.0436274950385</v>
+        <v>420.0436274950384</v>
       </c>
       <c r="L28" t="n">
-        <v>781.221831715135</v>
+        <v>781.2218317151348</v>
       </c>
       <c r="M28" t="n">
         <v>1169.997283086284</v>
@@ -6397,37 +6397,37 @@
         <v>1556.024065563749</v>
       </c>
       <c r="O28" t="n">
-        <v>1899.972070255763</v>
+        <v>1899.972070255762</v>
       </c>
       <c r="P28" t="n">
         <v>2177.197976461022</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.426678385138</v>
+        <v>2299.426678385137</v>
       </c>
       <c r="R28" t="n">
         <v>2255.120561283059</v>
       </c>
       <c r="S28" t="n">
-        <v>2108.95901725028</v>
+        <v>2108.959017250279</v>
       </c>
       <c r="T28" t="n">
         <v>1932.7167419602</v>
       </c>
       <c r="U28" t="n">
-        <v>1689.138215226238</v>
+        <v>1689.138215226237</v>
       </c>
       <c r="V28" t="n">
         <v>1479.978067160745</v>
       </c>
       <c r="W28" t="n">
-        <v>1236.085237264179</v>
+        <v>1236.085237264178</v>
       </c>
       <c r="X28" t="n">
-        <v>1053.620026506556</v>
+        <v>1053.620026506554</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3517875034196</v>
+        <v>878.3517875034186</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2045.209383194912</v>
+        <v>2045.209383194911</v>
       </c>
       <c r="C29" t="n">
         <v>1721.771206394894</v>
@@ -6461,25 +6461,25 @@
         <v>81.69700055602608</v>
       </c>
       <c r="J29" t="n">
-        <v>270.5761315150515</v>
+        <v>437.9817805354045</v>
       </c>
       <c r="K29" t="n">
-        <v>925.2994636503508</v>
+        <v>1092.705112670704</v>
       </c>
       <c r="L29" t="n">
-        <v>1376.333676898759</v>
+        <v>1543.739325919112</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.865581570684</v>
+        <v>2333.020945193522</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.644398629466</v>
+        <v>2879.799762252304</v>
       </c>
       <c r="O29" t="n">
-        <v>2959.616869508803</v>
+        <v>3382.772233131641</v>
       </c>
       <c r="P29" t="n">
-        <v>3672.971956955749</v>
+        <v>3777.546599488819</v>
       </c>
       <c r="Q29" t="n">
         <v>4025.832961244501</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.1281835828909</v>
+        <v>742.2276628135735</v>
       </c>
       <c r="C31" t="n">
-        <v>664.7163407953781</v>
+        <v>618.8158200260607</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1240415234365</v>
+        <v>514.223520754119</v>
       </c>
       <c r="E31" t="n">
-        <v>457.7352880814376</v>
+        <v>411.83476731212</v>
       </c>
       <c r="F31" t="n">
-        <v>356.3696807239214</v>
+        <v>310.4691599546038</v>
       </c>
       <c r="G31" t="n">
-        <v>234.1911842390346</v>
+        <v>188.2906634697168</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4983375972865</v>
+        <v>133.4983375972866</v>
       </c>
       <c r="I31" t="n">
         <v>81.69700055602608</v>
       </c>
       <c r="J31" t="n">
-        <v>171.4380387745619</v>
+        <v>171.4380387745618</v>
       </c>
       <c r="K31" t="n">
-        <v>420.0436274950385</v>
+        <v>420.0436274950387</v>
       </c>
       <c r="L31" t="n">
-        <v>781.2218317151348</v>
+        <v>781.2218317151351</v>
       </c>
       <c r="M31" t="n">
         <v>1169.997283086284</v>
@@ -6649,22 +6649,22 @@
         <v>2108.95901725028</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.617262729517</v>
+        <v>1932.7167419602</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.038735995555</v>
+        <v>1689.138215226238</v>
       </c>
       <c r="V31" t="n">
-        <v>1525.878587930062</v>
+        <v>1479.978067160745</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.985758033496</v>
+        <v>1236.085237264178</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.520547275872</v>
+        <v>1053.620026506555</v>
       </c>
       <c r="Y31" t="n">
-        <v>924.2523082727364</v>
+        <v>878.351787503419</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668916</v>
@@ -6701,22 +6701,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>1045.699547878785</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1496.733761127194</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2030.265665799118</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N32" t="n">
-        <v>2577.0444828579</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737237</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603403</v>
@@ -6789,7 +6789,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6856,7 +6856,7 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
@@ -6923,55 +6923,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398485</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
         <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524676</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647467</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094413</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603401</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834456</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7020,7 +7020,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697991</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899656</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257033</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415467</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973116</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982145</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.99511735017</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.59160627785</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519653</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386888</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>1872.543307058813</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="41">
@@ -7391,67 +7391,67 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910139</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2468.655602521438</v>
+        <v>2156.722678745574</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400775</v>
+        <v>3036.687329075029</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805549</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803187</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899672</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643397</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960312</v>
@@ -7573,46 +7573,46 @@
         <v>423.2675027973141</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572253</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277854</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052754</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.38513864407</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.879634793969</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2135.190356524676</v>
+        <v>2787.236323611207</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647469</v>
+        <v>3290.208794490544</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
         <v>779.7865456803195</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697984</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899648</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257023</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913824</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415452</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982167</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519649</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.2164583668001</v>
+        <v>212.876604986034</v>
       </c>
       <c r="L8" t="n">
-        <v>226.6718787511672</v>
+        <v>226.6718787511667</v>
       </c>
       <c r="M8" t="n">
-        <v>212.5758835944785</v>
+        <v>212.5758835944779</v>
       </c>
       <c r="N8" t="n">
-        <v>217.9533968401528</v>
+        <v>218.2312168701204</v>
       </c>
       <c r="O8" t="n">
-        <v>219.9227013672383</v>
+        <v>213.0466556255263</v>
       </c>
       <c r="P8" t="n">
-        <v>223.5559331266444</v>
+        <v>223.555933126644</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.376911567396</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>135.9737147440469</v>
+        <v>129.0976690023352</v>
       </c>
       <c r="L9" t="n">
-        <v>133.673347745965</v>
+        <v>133.6733477459646</v>
       </c>
       <c r="M9" t="n">
-        <v>130.6430647674682</v>
+        <v>135.290124445113</v>
       </c>
       <c r="N9" t="n">
-        <v>124.1346762167925</v>
+        <v>124.1346762167921</v>
       </c>
       <c r="O9" t="n">
-        <v>129.7129761262121</v>
+        <v>129.7129761262117</v>
       </c>
       <c r="P9" t="n">
-        <v>123.6344487799505</v>
+        <v>125.8634348440163</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0697855680604</v>
+        <v>133.0697855680602</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>135.0115522938099</v>
+        <v>135.0115522938097</v>
       </c>
       <c r="M10" t="n">
-        <v>138.6857765133622</v>
+        <v>138.4079564833938</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6147408703536</v>
+        <v>127.6147408703534</v>
       </c>
       <c r="O10" t="n">
-        <v>138.638224421097</v>
+        <v>138.916044451065</v>
       </c>
       <c r="P10" t="n">
-        <v>132.2375458079543</v>
+        <v>132.2375458079541</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>71.87446026386999</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158205</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>192.616625180034</v>
       </c>
       <c r="P26" t="n">
-        <v>304.4470470912927</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>258.333045053016</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>105.6309520536064</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>277.2206841544153</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.7354935515749</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>124.518591155005</v>
+        <v>287.0017854473926</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473926</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>277.2206841544158</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>12.68816924374653</v>
+        <v>21.74982042514932</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359452</v>
       </c>
       <c r="O44" t="n">
-        <v>124.5185911550063</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.325488839719375</v>
+        <v>8.325488839719373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.391725082158</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>70.81647248185422</v>
+        <v>320.9307751896848</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>337.5882534909392</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>362.5339291603887</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63.33174670487711</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>62.77330410454172</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>62.77330410454567</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>320.9307751896848</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.3409250393602</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5339291603888</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.84564520685321</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>14.51802455162037</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>304.8988521360904</v>
+        <v>115.5247508259066</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.77330410454432</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.77330410454071</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>345.9875814983137</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>83.92851037866829</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>36.142328560001</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>38.27967649622348</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>45.44151556162377</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>45.44151556162472</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.4415155616247</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.44151556162402</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.145839061995503e-12</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>939030.7136971646</v>
+        <v>939030.7136971644</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807243.8831900752</v>
+        <v>807243.8831900753</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807243.8831900751</v>
+        <v>807243.8831900752</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>811906.7198595199</v>
+        <v>811906.7198595197</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811906.7198595199</v>
+        <v>811906.7198595197</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>892864.8268219848</v>
+        <v>892864.8268219847</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26317,40 @@
         <v>573493.4371019267</v>
       </c>
       <c r="D2" t="n">
-        <v>574265.342666849</v>
+        <v>574265.3426668493</v>
       </c>
       <c r="E2" t="n">
-        <v>532063.14914326</v>
+        <v>532063.1491432601</v>
       </c>
       <c r="F2" t="n">
-        <v>532063.14914326</v>
+        <v>532063.1491432601</v>
       </c>
       <c r="G2" t="n">
-        <v>535171.7069228905</v>
+        <v>535171.7069228904</v>
       </c>
       <c r="H2" t="n">
         <v>535171.7069228907</v>
       </c>
       <c r="I2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="J2" t="n">
         <v>573965.8214435631</v>
       </c>
       <c r="K2" t="n">
-        <v>573965.8214435633</v>
+        <v>573965.8214435632</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="N2" t="n">
         <v>574729.238904999</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="P2" t="n">
         <v>574729.2389049986</v>
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23695.46889351137</v>
+        <v>23695.46889351202</v>
       </c>
       <c r="E3" t="n">
-        <v>1136963.65990644</v>
+        <v>1136963.659906439</v>
       </c>
       <c r="F3" t="n">
-        <v>4.942944542563053e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2106.416029815642</v>
+        <v>2106.41602981583</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902292</v>
+        <v>48646.25967902302</v>
       </c>
       <c r="J3" t="n">
-        <v>35747.93747342053</v>
+        <v>35747.9374734207</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3631.247933497883</v>
+        <v>3631.247933497752</v>
       </c>
       <c r="M3" t="n">
-        <v>205475.0301890556</v>
+        <v>205475.0301890555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33948.86136137618</v>
+        <v>33948.86136137629</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>418989.6393706224</v>
+        <v>418989.6393706222</v>
       </c>
       <c r="E4" t="n">
-        <v>54454.5084996159</v>
+        <v>54454.50849961608</v>
       </c>
       <c r="F4" t="n">
-        <v>54454.5084996159</v>
+        <v>54454.50849961607</v>
       </c>
       <c r="G4" t="n">
-        <v>56995.66948357394</v>
+        <v>56995.66948357392</v>
       </c>
       <c r="H4" t="n">
-        <v>56995.66948357397</v>
+        <v>56995.66948357393</v>
       </c>
       <c r="I4" t="n">
-        <v>78703.96570883355</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="J4" t="n">
-        <v>77680.38024331057</v>
+        <v>77680.38024331059</v>
       </c>
       <c r="K4" t="n">
-        <v>77680.38024331059</v>
+        <v>77680.38024331056</v>
       </c>
       <c r="L4" t="n">
         <v>78703.96570883354</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883357</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883352</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883349</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34594.46178984071</v>
+        <v>34594.46178984072</v>
       </c>
       <c r="E5" t="n">
-        <v>78034.13796026853</v>
+        <v>78034.13796026852</v>
       </c>
       <c r="F5" t="n">
         <v>78034.1379602685</v>
@@ -26485,13 +26485,13 @@
         <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89635.76638926388</v>
+        <v>89635.7663892639</v>
       </c>
       <c r="K5" t="n">
         <v>89635.76638926388</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114342.6979358233</v>
+        <v>114338.2843579552</v>
       </c>
       <c r="C6" t="n">
-        <v>114342.6979358231</v>
+        <v>114338.284357955</v>
       </c>
       <c r="D6" t="n">
-        <v>96985.77261287457</v>
+        <v>96984.11584059517</v>
       </c>
       <c r="E6" t="n">
-        <v>-737389.1572230645</v>
+        <v>-737541.5361150698</v>
       </c>
       <c r="F6" t="n">
-        <v>399574.5026833756</v>
+        <v>399422.1237913693</v>
       </c>
       <c r="G6" t="n">
-        <v>397814.1280877191</v>
+        <v>397672.8511877828</v>
       </c>
       <c r="H6" t="n">
-        <v>399920.544117535</v>
+        <v>399779.267217599</v>
       </c>
       <c r="I6" t="n">
-        <v>358001.0718423359</v>
+        <v>358001.0718423364</v>
       </c>
       <c r="J6" t="n">
-        <v>370901.7373375681</v>
+        <v>370899.0108466342</v>
       </c>
       <c r="K6" t="n">
-        <v>406649.6748109888</v>
+        <v>406646.948320055</v>
       </c>
       <c r="L6" t="n">
-        <v>403016.083587861</v>
+        <v>403016.0835878613</v>
       </c>
       <c r="M6" t="n">
-        <v>201172.3013323035</v>
+        <v>201172.3013323037</v>
       </c>
       <c r="N6" t="n">
-        <v>406647.3315213594</v>
+        <v>406647.3315213595</v>
       </c>
       <c r="O6" t="n">
-        <v>372698.470159983</v>
+        <v>372698.4701599828</v>
       </c>
       <c r="P6" t="n">
         <v>406647.331521359</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="F2" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="K2" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859271</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.17422975892914</v>
+        <v>25.17422975892991</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.633020037269993</v>
+        <v>2.633020037269787</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42.43607670172022</v>
+        <v>42.4360767017204</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.539059916872354</v>
+        <v>4.539059916872191</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.43607670172022</v>
+        <v>42.43607670172037</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.17422975892914</v>
+        <v>25.17422975892991</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.602470834369</v>
+        <v>1064.602470834368</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.5254096605817</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.049743807677977e-14</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063219</v>
+        <v>182.9350058063222</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.633020037269993</v>
+        <v>2.633020037269787</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.43607670172022</v>
+        <v>42.4360767017204</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605817</v>
+        <v>824.5254096605812</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.4383575709686</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5742634687733</v>
+        <v>206.5742634687732</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.359816860132202</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.5119291568509</v>
+        <v>137.4555080675512</v>
       </c>
       <c r="S8" t="n">
         <v>206.71390773446</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6528337218411</v>
+        <v>215.7767879801296</v>
       </c>
       <c r="U8" t="n">
         <v>251.3375566731401</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>346.5443644882461</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>362.8550549367576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>131.2329477306562</v>
+        <v>137.2893688199556</v>
       </c>
       <c r="H9" t="n">
-        <v>104.8364394954533</v>
+        <v>111.7124852371647</v>
       </c>
       <c r="I9" t="n">
-        <v>80.65626915114143</v>
+        <v>87.53231489285281</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>89.91984127444678</v>
+        <v>96.79588701615812</v>
       </c>
       <c r="S9" t="n">
-        <v>170.6773893771485</v>
+        <v>164.6209682878491</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9464728726664</v>
+        <v>193.0704271309549</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9378196899712</v>
+        <v>219.0617739482598</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28017,25 +28017,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>140.3775415572698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.069537464723</v>
+        <v>167.9455832064345</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8235594467145</v>
+        <v>161.8235594467144</v>
       </c>
       <c r="I10" t="n">
-        <v>154.0852888282003</v>
+        <v>154.0852888282002</v>
       </c>
       <c r="J10" t="n">
-        <v>90.14967216855487</v>
+        <v>90.14967216855477</v>
       </c>
       <c r="K10" t="n">
-        <v>10.1192386035302</v>
+        <v>16.99528434524147</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.36073455809608</v>
+        <v>75.48468881638453</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2522153052406</v>
+        <v>169.1957942159411</v>
       </c>
       <c r="S10" t="n">
         <v>223.2254669148761</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7516240514504</v>
+        <v>220.875578309739</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3165532027441</v>
+        <v>279.4405074610327</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="D11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="E11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="F11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="G11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="H11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="T11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="U11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="V11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="W11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="X11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="C13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="D13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="E13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="F13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="G13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="H13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="I13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="J13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="K13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="L13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="M13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="N13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="O13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="P13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="R13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="S13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="T13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="U13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="V13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="W13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="X13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="C14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="D14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="E14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="F14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="G14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="H14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="U14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="V14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="W14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="X14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="C16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="D16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="E16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="F16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="G16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="H16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="I16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="J16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="K16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="L16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="M16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="N16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="O16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="P16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="R16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="S16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="T16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="U16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="V16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="W16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="X16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.3421165813226</v>
+        <v>44.34211658132278</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="C26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="D26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="E26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="F26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="G26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="H26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="T26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="U26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="V26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="W26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="X26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="C28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="D28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="E28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="F28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="G28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="H28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="I28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="J28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="K28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="L28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="M28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="N28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="O28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="P28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="R28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="S28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="T28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="U28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="V28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="W28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="X28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="C29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="D29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="E29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="F29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="G29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="H29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="T29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="U29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="V29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="W29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="X29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="C31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="D31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="E31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="F31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="G31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="H31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="I31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="J31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="K31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="L31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="M31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="N31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="O31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="P31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="R31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="S31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="T31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="U31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="V31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="W31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="X31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.06909673899021</v>
+        <v>45.06909673899018</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661858969</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859271</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859378</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859536</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1012029337042377</v>
+        <v>0.1012029337042408</v>
       </c>
       <c r="H8" t="n">
-        <v>1.036444544798524</v>
+        <v>1.036444544798556</v>
       </c>
       <c r="I8" t="n">
-        <v>3.901626101632627</v>
+        <v>3.901626101632747</v>
       </c>
       <c r="J8" t="n">
-        <v>8.58947249448005</v>
+        <v>8.589472494480315</v>
       </c>
       <c r="K8" t="n">
-        <v>12.87339267818044</v>
+        <v>12.87339267818083</v>
       </c>
       <c r="L8" t="n">
-        <v>15.9705819605315</v>
+        <v>15.97058196053199</v>
       </c>
       <c r="M8" t="n">
-        <v>17.77034963279424</v>
+        <v>17.77034963279478</v>
       </c>
       <c r="N8" t="n">
-        <v>18.05789246818141</v>
+        <v>18.05789246818196</v>
       </c>
       <c r="O8" t="n">
-        <v>17.05155579615989</v>
+        <v>17.05155579616041</v>
       </c>
       <c r="P8" t="n">
-        <v>14.55310837033652</v>
+        <v>14.55310837033697</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.92877830705351</v>
+        <v>10.92877830705384</v>
       </c>
       <c r="R8" t="n">
-        <v>6.357188784298827</v>
+        <v>6.357188784299021</v>
       </c>
       <c r="S8" t="n">
-        <v>2.306161851785319</v>
+        <v>2.306161851785389</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4430158422903007</v>
+        <v>0.4430158422903143</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008096234696339013</v>
+        <v>0.008096234696339261</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05414834325505514</v>
+        <v>0.0541483432550568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5229589993317169</v>
+        <v>0.5229589993317328</v>
       </c>
       <c r="I9" t="n">
-        <v>1.864317958562206</v>
+        <v>1.864317958562263</v>
       </c>
       <c r="J9" t="n">
-        <v>5.115830973934838</v>
+        <v>5.115830973934994</v>
       </c>
       <c r="K9" t="n">
-        <v>8.743769972023532</v>
+        <v>8.743769972023799</v>
       </c>
       <c r="L9" t="n">
-        <v>11.75707777562064</v>
+        <v>11.757077775621</v>
       </c>
       <c r="M9" t="n">
-        <v>13.71995521861638</v>
+        <v>13.7199552186168</v>
       </c>
       <c r="N9" t="n">
-        <v>14.08308160825226</v>
+        <v>14.08308160825269</v>
       </c>
       <c r="O9" t="n">
-        <v>12.88326831823235</v>
+        <v>12.88326831823275</v>
       </c>
       <c r="P9" t="n">
-        <v>10.33995863437979</v>
+        <v>10.3399586343801</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.911988517961074</v>
+        <v>6.911988517961286</v>
       </c>
       <c r="R9" t="n">
-        <v>3.361947136484916</v>
+        <v>3.361947136485019</v>
       </c>
       <c r="S9" t="n">
-        <v>1.005781726689291</v>
+        <v>1.005781726689322</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2182558221552441</v>
+        <v>0.2182558221552508</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00356239100362205</v>
+        <v>0.003562391003622159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04539615202429845</v>
+        <v>0.04539615202429984</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4036130607251265</v>
+        <v>0.4036130607251389</v>
       </c>
       <c r="I10" t="n">
-        <v>1.365186099057994</v>
+        <v>1.365186099058036</v>
       </c>
       <c r="J10" t="n">
-        <v>3.209507948117901</v>
+        <v>3.209507948117999</v>
       </c>
       <c r="K10" t="n">
-        <v>5.274207480641219</v>
+        <v>5.274207480641381</v>
       </c>
       <c r="L10" t="n">
-        <v>6.749169729139791</v>
+        <v>6.749169729139997</v>
       </c>
       <c r="M10" t="n">
-        <v>7.116053175954346</v>
+        <v>7.116053175954565</v>
       </c>
       <c r="N10" t="n">
-        <v>6.946849336591058</v>
+        <v>6.946849336591271</v>
       </c>
       <c r="O10" t="n">
-        <v>6.416539742489023</v>
+        <v>6.41653974248922</v>
       </c>
       <c r="P10" t="n">
-        <v>5.49045824119333</v>
+        <v>5.490458241193498</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.801308693598301</v>
+        <v>3.801308693598417</v>
       </c>
       <c r="R10" t="n">
-        <v>2.04117607192891</v>
+        <v>2.041176071928972</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7911311220961827</v>
+        <v>0.791131122096207</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1939653768310933</v>
+        <v>0.1939653768310993</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002476153746779918</v>
+        <v>0.002476153746779994</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32555,10 +32555,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33032,13 +33032,13 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233485</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
@@ -33275,13 +33275,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33740,13 +33740,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33989,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5.66014661923426</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9380790925090352</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.369239647676981</v>
+        <v>4.369239647677137</v>
       </c>
       <c r="K9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>2.228986064066313</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.228986064066159</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.92053319438882</v>
+        <v>89.92053319438901</v>
       </c>
       <c r="K13" t="n">
-        <v>250.3897761256422</v>
+        <v>250.3897761256423</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0994887515207</v>
+        <v>364.0994887515209</v>
       </c>
       <c r="M13" t="n">
-        <v>391.9754959748064</v>
+        <v>391.9754959748066</v>
       </c>
       <c r="N13" t="n">
-        <v>389.1990627488627</v>
+        <v>389.1990627488628</v>
       </c>
       <c r="O13" t="n">
-        <v>346.6952468039624</v>
+        <v>346.6952468039625</v>
       </c>
       <c r="P13" t="n">
-        <v>279.299187726433</v>
+        <v>279.2991877264332</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.7363551192163</v>
+        <v>122.7363551192164</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.92053319438885</v>
+        <v>89.92053319438898</v>
       </c>
       <c r="K16" t="n">
-        <v>250.3897761256422</v>
+        <v>250.3897761256423</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0994887515208</v>
+        <v>364.0994887515209</v>
       </c>
       <c r="M16" t="n">
-        <v>391.9754959748065</v>
+        <v>391.9754959748066</v>
       </c>
       <c r="N16" t="n">
         <v>389.1990627488628</v>
       </c>
       <c r="O16" t="n">
-        <v>346.6952468039624</v>
+        <v>346.6952468039625</v>
       </c>
       <c r="P16" t="n">
-        <v>279.2991877264331</v>
+        <v>279.2991877264332</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.7363551192163</v>
+        <v>122.7363551192164</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861318</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36203,10 +36203,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629113</v>
+        <v>253.0227961629124</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
@@ -36294,7 +36294,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36361,25 +36361,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>610.7955760940965</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>785.7552219287318</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36595,7 +36595,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36607,13 +36607,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>700.669626068253</v>
       </c>
       <c r="P26" t="n">
-        <v>703.2090333106644</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36680,13 +36680,13 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013302</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>90.64751335205641</v>
+        <v>90.64751335205638</v>
       </c>
       <c r="K28" t="n">
         <v>251.1167562833097</v>
       </c>
       <c r="L28" t="n">
-        <v>364.8264689091883</v>
+        <v>364.8264689091882</v>
       </c>
       <c r="M28" t="n">
         <v>392.702476132474</v>
       </c>
       <c r="N28" t="n">
-        <v>389.9260429065303</v>
+        <v>389.9260429065302</v>
       </c>
       <c r="O28" t="n">
         <v>347.4222269616299</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>797.2541608832425</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36847,10 +36847,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>356.4252568573258</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36923,13 +36923,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>90.64751335205641</v>
+        <v>90.64751335205636</v>
       </c>
       <c r="K31" t="n">
         <v>251.1167562833097</v>
       </c>
       <c r="L31" t="n">
-        <v>364.8264689091883</v>
+        <v>364.8264689091882</v>
       </c>
       <c r="M31" t="n">
         <v>392.702476132474</v>
       </c>
       <c r="N31" t="n">
-        <v>389.9260429065303</v>
+        <v>389.9260429065302</v>
       </c>
       <c r="O31" t="n">
         <v>347.4222269616299</v>
@@ -37069,25 +37069,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>614.4119707098157</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>647.6566093818014</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37315,19 +37315,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>632.571592043224</v>
+        <v>795.0547863356117</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165891</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629092</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637031</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>742.5918998397245</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>785.2736850426348</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629133</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412326</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P40" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37789,10 +37789,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>564.9900046566578</v>
+        <v>574.0516558380606</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165864</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861324</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.369375156489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>793.2729108488564</v>
       </c>
       <c r="O44" t="n">
-        <v>632.5715920432253</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
@@ -38187,13 +38187,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P46" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
